--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -501,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -697,10 +697,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -723,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -775,16 +775,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -801,22 +801,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -853,10 +853,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -865,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -931,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -957,22 +957,22 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1009,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
     <t>C.Godwin</t>
   </si>
   <si>
+    <t>T.Johnson</t>
+  </si>
+  <si>
     <t>J.Darden</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
   </si>
   <si>
     <t>S.Miller</t>
-  </si>
-  <si>
-    <t>T.Johnson</t>
   </si>
   <si>
     <t>C.Grayson</t>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -621,13 +621,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -641,15 +641,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -671,22 +691,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -697,10 +717,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -709,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -775,22 +795,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -801,22 +821,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -824,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -850,13 +870,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -876,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -928,19 +948,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -957,13 +977,13 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -1009,10 +1029,10 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1021,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <v>9</v>

--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Buccaneers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_B40AABC169A98D6FB3B33737F5EA457721BC9F74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908188D3-F305-43B0-ADD9-1123D32672FA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -98,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,13 +153,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -162,6 +182,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -208,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +268,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +320,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -487,24 +553,24 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -513,18 +579,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -533,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -553,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,19 +627,19 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -593,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -604,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -633,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -653,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -679,14 +745,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -717,25 +785,25 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -743,25 +811,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -787,50 +855,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>26</v>
@@ -839,21 +907,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -865,73 +933,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -943,109 +1011,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
+      <c r="C15">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>17</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>9</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Buccaneers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_B40AABC169A98D6FB3B33737F5EA457721BC9F74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908188D3-F305-43B0-ADD9-1123D32672FA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5D2A0BCAD3914F6951903337F5EA45777138B997" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DDC045-A4E6-48A1-89F2-5965D8F1D6F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>T.Brady</t>
   </si>
   <si>
-    <t>L.Fournette</t>
-  </si>
-  <si>
     <t>R.Jones</t>
   </si>
   <si>
@@ -53,18 +50,21 @@
     <t>K.Vaughn</t>
   </si>
   <si>
+    <t>L.Bell</t>
+  </si>
+  <si>
     <t>M.Evans</t>
   </si>
   <si>
-    <t>C.Godwin</t>
-  </si>
-  <si>
     <t>T.Johnson</t>
   </si>
   <si>
     <t>J.Darden</t>
   </si>
   <si>
+    <t>C.Grayson</t>
+  </si>
+  <si>
     <t>B.Perriman</t>
   </si>
   <si>
@@ -86,10 +86,10 @@
     <t>RZ Comp</t>
   </si>
   <si>
+    <t>A.Brown</t>
+  </si>
+  <si>
     <t>S.Miller</t>
-  </si>
-  <si>
-    <t>C.Grayson</t>
   </si>
   <si>
     <t>R.Gronkowski</t>
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,27 +153,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -516,9 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -550,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -564,19 +548,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -584,19 +568,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -607,16 +591,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,13 +611,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -673,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -687,13 +671,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -746,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,22 +769,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -823,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,22 +821,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -860,204 +844,204 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>102</v>
-      </c>
-      <c r="D6">
-        <v>83</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
       <c r="G6">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
       <c r="D10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1065,84 +1049,29 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>17</v>
-      </c>
-      <c r="H15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Buccaneers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5D2A0BCAD3914F6951903337F5EA45777138B997" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DDC045-A4E6-48A1-89F2-5965D8F1D6F2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9ECE08D599F90B7D75F12E37F5EA457721B7CD77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C81147-8DAA-4DB6-9CAC-3F4F41794443}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>A.Brown</t>
   </si>
   <si>
     <t>S.Miller</t>
@@ -502,7 +499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -551,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,16 +590,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -620,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,10 +768,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -821,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,51 +843,51 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -896,25 +895,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -922,25 +921,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -948,25 +947,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -974,19 +973,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1000,25 +999,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1026,25 +1025,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1052,25 +1051,51 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>17</v>
-      </c>
-      <c r="H13">
-        <v>9</v>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Buccaneers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_9ECE08D599F90B7D75F12E37F5EA457721B7CD77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C81147-8DAA-4DB6-9CAC-3F4F41794443}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +47,15 @@
     <t>L.Bell</t>
   </si>
   <si>
+    <t>K.Barner</t>
+  </si>
+  <si>
     <t>M.Evans</t>
   </si>
   <si>
+    <t>S.Miller</t>
+  </si>
+  <si>
     <t>T.Johnson</t>
   </si>
   <si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>S.Miller</t>
   </si>
   <si>
     <t>R.Gronkowski</t>
@@ -101,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,16 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -542,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -562,7 +513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,19 +521,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -590,19 +541,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -610,19 +561,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -630,19 +581,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -650,19 +601,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -673,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -682,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -690,19 +641,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -710,15 +661,55 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -728,39 +719,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -794,25 +783,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -820,11 +809,11 @@
         <v>8</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -832,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,10 +835,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,50 +847,50 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
         <v>17</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -916,18 +905,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -936,18 +925,18 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -956,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -968,12 +957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -994,70 +983,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
         <v>14</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>59</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1066,24 +1055,24 @@
         <v>1</v>
       </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1092,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Buccaneers/Players Data.xlsx
+++ b/Base/Teams/Buccaneers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>T.Brady</t>
+  </si>
+  <si>
+    <t>L.Fournette</t>
   </si>
   <si>
     <t>R.Jones</t>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -561,16 +564,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -581,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,16 +604,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -624,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -641,13 +644,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -661,13 +664,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -701,15 +704,35 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -731,22 +754,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -757,22 +780,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -783,22 +806,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -809,22 +832,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -835,10 +858,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,25 +881,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -887,22 +910,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -913,22 +936,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -939,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -968,19 +991,19 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -991,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1014,25 +1037,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1043,22 +1066,22 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
       <c r="H13">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1069,22 +1092,48 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
